--- a/histology/v2.0.0/histology-v2.0.0.xlsx
+++ b/histology/v2.0.0/histology-v2.0.0.xlsx
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="729">
   <si>
     <t>parent_id</t>
   </si>
@@ -1628,6 +1628,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000195</t>
   </si>
   <si>
+    <t>nanoPOTS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000246</t>
+  </si>
+  <si>
     <t>DESI</t>
   </si>
   <si>
@@ -1646,6 +1652,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
   </si>
   <si>
+    <t>snATAC-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000183</t>
+  </si>
+  <si>
     <t>Xenium</t>
   </si>
   <si>
@@ -1658,10 +1670,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
   </si>
   <si>
-    <t>RNAseq (sc/sn)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000213</t>
+    <t>scRNA-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000248</t>
   </si>
   <si>
     <t>CosMx</t>
@@ -1712,6 +1724,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000160</t>
   </si>
   <si>
+    <t>snRNA-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000184</t>
+  </si>
+  <si>
     <t>CyCIF</t>
   </si>
   <si>
@@ -1760,6 +1778,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000197</t>
   </si>
   <si>
+    <t>scATAC-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000247</t>
+  </si>
+  <si>
     <t>Enhanced Stimulated Raman Spectroscopy (SRS)</t>
   </si>
   <si>
@@ -1778,12 +1802,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
   </si>
   <si>
-    <t>ATACseq (sc/sn)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000211</t>
-  </si>
-  <si>
     <t>LC-MS</t>
   </si>
   <si>
@@ -2411,7 +2429,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-08-03T09:15:58-07:00</t>
+    <t>2023-08-04T07:36:21-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2583,84 +2601,87 @@
         <v>456</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>714</v>
+        <v>720</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="H2" t="s">
+        <v>507</v>
+      </c>
       <c r="AF2" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
     </row>
   </sheetData>
@@ -2672,7 +2693,7 @@
       <formula1>'operator'!$A$1:$A$203</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$33</formula1>
+      <formula1>'dataset_type'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$11</formula1>
@@ -2756,42 +2777,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="B1" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="B2" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="B3" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="B4" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="B5" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -2809,7 +2830,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2817,7 +2838,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -2838,34 +2859,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="B1" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="B2" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="B3" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="B4" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -2883,26 +2904,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="B1" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="B2" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="B3" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -2920,7 +2941,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2928,7 +2949,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -2949,7 +2970,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2957,7 +2978,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -2978,34 +2999,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="B1" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="B2" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="B3" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="B4" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -3023,66 +3044,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="B1" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="B2" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="B3" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="B4" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="B5" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="B6" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B7" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="B8" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -3100,34 +3121,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="B1" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="B2" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="B3" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="B4" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -3145,34 +3166,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="B1" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="B2" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="B3" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="B4" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
     </row>
   </sheetData>
@@ -3377,30 +3398,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="B1" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="C1" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="D1" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="B2" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="C2" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="D2" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
     </row>
   </sheetData>
@@ -5047,7 +5068,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5315,6 +5336,30 @@
       </c>
       <c r="B33" t="s">
         <v>522</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>523</v>
+      </c>
+      <c r="B34" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>525</v>
+      </c>
+      <c r="B35" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>527</v>
+      </c>
+      <c r="B36" t="s">
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -5332,90 +5377,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B1" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="B2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="B3" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="B4" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="B5" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="B6" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="B7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="B8" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B9" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B10" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="B11" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -5433,7 +5478,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5441,7 +5486,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -5462,114 +5507,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B1" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B2" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="B3" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B4" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="B5" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B6" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="B7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="B8" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="B9" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="B10" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="B11" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="B12" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="B13" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="B14" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -5587,242 +5632,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="B1" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="B2" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="B3" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="B4" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="B5" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="B6" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="B7" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="B8" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="B9" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="B10" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="B11" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="B12" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="B13" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="B14" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="B15" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="B16" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="B17" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="B18" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="B19" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="B20" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="B21" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B22" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="B23" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="B24" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="B25" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="B26" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="B27" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="B28" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="B29" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="B30" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -5840,42 +5885,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="B1" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="B2" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="B3" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="B4" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="B5" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>

--- a/histology/v2.0.0/histology-v2.0.0.xlsx
+++ b/histology/v2.0.0/histology-v2.0.0.xlsx
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="731">
   <si>
     <t>parent_id</t>
   </si>
@@ -2300,6 +2300,12 @@
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48660</t>
+  </si>
+  <si>
     <t>HTX Technologies</t>
   </si>
   <si>
@@ -2429,7 +2435,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-08-04T07:36:21-07:00</t>
+    <t>2023-08-04T13:22:06-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2649,28 +2655,28 @@
         <v>680</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="2">
@@ -2681,7 +2687,7 @@
         <v>507</v>
       </c>
       <c r="AF2" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
   </sheetData>
@@ -2737,10 +2743,10 @@
       <formula1>'is_staining_automated'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="X2:X1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_vendor'!$A$1:$A$4</formula1>
+      <formula1>'preparation_instrument_vendor'!$A$1:$A$5</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="Y2:Y1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_model'!$A$1:$A$8</formula1>
+      <formula1>'preparation_instrument_model'!$A$1:$A$9</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AA2:AA1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'tile_configuration'!$A$1:$A$4</formula1>
@@ -2991,7 +2997,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3029,6 +3035,14 @@
         <v>686</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>687</v>
+      </c>
+      <c r="B5" t="s">
+        <v>688</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3036,7 +3050,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3052,10 +3066,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="B2" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
     <row r="3">
@@ -3092,17 +3106,25 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>627</v>
+        <v>698</v>
       </c>
       <c r="B7" t="s">
-        <v>628</v>
+        <v>699</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>627</v>
+      </c>
+      <c r="B8" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
         <v>629</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>630</v>
       </c>
     </row>
@@ -3121,34 +3143,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B1" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B2" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B3" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B4" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -3166,34 +3188,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B2" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B3" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B4" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -3398,16 +3420,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C1" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="D1" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="2">
@@ -3415,13 +3437,13 @@
         <v>507</v>
       </c>
       <c r="B2" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="D2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
   </sheetData>

--- a/histology/v2.0.0/histology-v2.0.0.xlsx
+++ b/histology/v2.0.0/histology-v2.0.0.xlsx
@@ -2435,7 +2435,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-08-04T13:22:06-07:00</t>
+    <t>2023-08-11T13:12:15-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2713,14 +2713,14 @@
     <dataValidation type="list" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'acquisition_instrument_model'!$A$1:$A$30</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" sqref="M2:M1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="M2:M1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="N2:N1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'source_storage_duration_unit'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
@@ -2754,15 +2754,15 @@
     <dataValidation type="list" sqref="AB2:AB1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'scan_direction'!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" sqref="AC2:AC1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="whole" operator="greaterThanOrEqual" sqref="AC2:AC1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>1</formula1>
       <formula2/>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" sqref="AD2:AD1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="whole" operator="greaterThanOrEqual" sqref="AD2:AD1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>1</formula1>
       <formula2/>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" sqref="AE2:AE1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="AE2:AE1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>

--- a/histology/v2.0.0/histology-v2.0.0.xlsx
+++ b/histology/v2.0.0/histology-v2.0.0.xlsx
@@ -239,8 +239,8 @@
     </comment>
     <comment ref="AF1" authorId="1">
       <text>
-        <t>The string that serves as the definitive identifier for the metadata schema
-version and is readily interpretable by computers for data validation and
+        <t>(Required) The string that serves as the definitive identifier for the metadata
+schema version and is readily interpretable by computers for data validation and
 processing. Example: 22bc762a-5020-419d-b170-24253ed9e8d9</t>
       </text>
     </comment>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="727">
   <si>
     <t>parent_id</t>
   </si>
@@ -1871,12 +1871,6 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C449</t>
   </si>
   <si>
-    <t>N-glycan</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_59520</t>
-  </si>
-  <si>
     <t>Endogenous fluorophores</t>
   </si>
   <si>
@@ -2300,12 +2294,6 @@
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
-    <t>Not applicable</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48660</t>
-  </si>
-  <si>
     <t>HTX Technologies</t>
   </si>
   <si>
@@ -2435,7 +2423,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-08-11T13:12:15-07:00</t>
+    <t>2023-09-08T20:50:25-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2610,73 +2598,73 @@
         <v>529</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="O1" t="s" s="1">
+        <v>655</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>656</v>
+      </c>
+      <c r="Q1" t="s" s="1">
         <v>657</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>658</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>659</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>660</v>
       </c>
-      <c r="S1" t="s" s="1">
-        <v>661</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>662</v>
-      </c>
       <c r="U1" t="s" s="1">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="V1" t="s" s="1">
+        <v>676</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>677</v>
+      </c>
+      <c r="X1" t="s" s="1">
         <v>678</v>
       </c>
-      <c r="W1" t="s" s="1">
-        <v>679</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>680</v>
-      </c>
       <c r="Y1" t="s" s="1">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="2">
@@ -2687,7 +2675,7 @@
         <v>507</v>
       </c>
       <c r="AF2" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
   </sheetData>
@@ -2702,7 +2690,7 @@
       <formula1>'dataset_type'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$11</formula1>
+      <formula1>'analyte_class'!$A$1:$A$10</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J2:J1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -2725,7 +2713,7 @@
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$5</formula1>
+      <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="S2:S1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_image_preprocessing_required'!$A$1:$A$2</formula1>
@@ -2743,10 +2731,10 @@
       <formula1>'is_staining_automated'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="X2:X1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_vendor'!$A$1:$A$5</formula1>
+      <formula1>'preparation_instrument_vendor'!$A$1:$A$4</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="Y2:Y1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_model'!$A$1:$A$9</formula1>
+      <formula1>'preparation_instrument_model'!$A$1:$A$8</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AA2:AA1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'tile_configuration'!$A$1:$A$4</formula1>
@@ -2775,7 +2763,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2803,22 +2791,6 @@
       </c>
       <c r="B3" t="s">
         <v>652</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>653</v>
-      </c>
-      <c r="B4" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>655</v>
-      </c>
-      <c r="B5" t="s">
-        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -2836,7 +2808,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2844,7 +2816,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -2865,34 +2837,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
   </sheetData>
@@ -2910,26 +2882,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -2947,7 +2919,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2955,7 +2927,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -2976,7 +2948,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2984,7 +2956,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -2997,7 +2969,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3005,42 +2977,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B4" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>687</v>
-      </c>
-      <c r="B5" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -3050,7 +3014,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3058,58 +3022,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B2" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B5" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B6" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>698</v>
+        <v>625</v>
       </c>
       <c r="B7" t="s">
-        <v>699</v>
+        <v>626</v>
       </c>
     </row>
     <row r="8">
@@ -3118,14 +3082,6 @@
       </c>
       <c r="B8" t="s">
         <v>628</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>629</v>
-      </c>
-      <c r="B9" t="s">
-        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -3143,34 +3099,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B2" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B3" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B4" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
   </sheetData>
@@ -3188,34 +3144,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B1" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B3" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B4" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -3420,16 +3376,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C1" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1" t="s">
         <v>725</v>
-      </c>
-      <c r="C1" t="s">
-        <v>727</v>
-      </c>
-      <c r="D1" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="2">
@@ -3437,13 +3393,13 @@
         <v>507</v>
       </c>
       <c r="B2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C2" t="s">
+        <v>724</v>
+      </c>
+      <c r="D2" t="s">
         <v>726</v>
-      </c>
-      <c r="C2" t="s">
-        <v>728</v>
-      </c>
-      <c r="D2" t="s">
-        <v>730</v>
       </c>
     </row>
   </sheetData>
@@ -5391,7 +5347,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5475,14 +5431,6 @@
       </c>
       <c r="B10" t="s">
         <v>549</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>550</v>
-      </c>
-      <c r="B11" t="s">
-        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -5500,7 +5448,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5508,7 +5456,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -5529,114 +5477,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B9" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B10" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B13" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B14" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -5654,242 +5602,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B8" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B9" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B11" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B12" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B13" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B14" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B15" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B16" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B17" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B18" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B19" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B20" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B21" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B22" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B23" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B24" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B25" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B26" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B27" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B28" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B29" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B30" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -5907,42 +5855,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B5" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>
